--- a/data/extracted_data/raw_round2/data/Oh_etal_2024_Fig4.xlsx
+++ b/data/extracted_data/raw_round2/data/Oh_etal_2024_Fig4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="27" documentId="8_{81E7A50D-AB46-5B43-BF5D-725F26A0DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DA2DCA-60DF-A340-A067-D2C9D95D866D}"/>
@@ -110,10 +110,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,7 +412,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
